--- a/CircuitLevis/resultats/Resultats_4_2021.xlsx
+++ b/CircuitLevis/resultats/Resultats_4_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\cx418WebSite\CircuitLevis\resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C1A18F-09F1-43F1-A17A-B240F3248B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2028CC6-90FF-43E9-AA50-0AFF395ED829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{417E1322-A527-4ABA-A34F-3CE50599D7ED}"/>
   </bookViews>
@@ -945,7 +945,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
